--- a/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HustProjects\Project_Of_HardwareSystem_2022\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FB72A7-8507-45F4-8584-663E3E5BCA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77A3B16-F637-4BF6-B0D9-C1071DB6DD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -940,6 +940,22 @@
   </si>
   <si>
     <t>01b</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLTU</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2171,8 +2187,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2286,10 +2302,10 @@
         <v>74</v>
       </c>
       <c r="AE1" s="25" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="AF1" s="25" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="AG1" s="25" t="s">
         <v>13</v>
@@ -4636,71 +4652,83 @@
       <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="20" t="str">
+      <c r="B26" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37">
+        <v>1</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G26" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H26" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K26" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K26" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M26" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M26" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N26" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N26" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O26" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P26" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S26" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T26" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
+      <c r="X26" s="31">
+        <v>1</v>
+      </c>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="31"/>
@@ -4721,71 +4749,83 @@
       <c r="A27" s="57">
         <v>26</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="59" t="str">
+      <c r="B27" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="44">
+        <v>32</v>
+      </c>
+      <c r="D27" s="59">
+        <v>5</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G27" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G27" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H27" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H27" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I27" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J27" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K27" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K27" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M27" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M27" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N27" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N27" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O27" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O27" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P27" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R27" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S27" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S27" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T27" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T27" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
       <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
+      <c r="X27" s="57">
+        <v>1</v>
+      </c>
       <c r="Y27" s="57"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="57"/>
@@ -4806,10 +4846,16 @@
       <c r="A28" s="35">
         <v>27</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="37">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>8</v>
+      </c>
       <c r="F28" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4818,66 +4864,76 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K28" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L28" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M28" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M28" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O28" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O28" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P28" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R28" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S28" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S28" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T28" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T28" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
+      <c r="V28" s="31">
+        <v>1</v>
+      </c>
+      <c r="W28" s="31">
+        <v>1</v>
+      </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
+      <c r="Z28" s="31">
+        <v>1</v>
+      </c>
       <c r="AA28" s="31"/>
       <c r="AB28" s="31"/>
       <c r="AC28" s="31"/>
       <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
+      <c r="AE28" s="31">
+        <v>1</v>
+      </c>
       <c r="AF28" s="31"/>
       <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
@@ -4891,10 +4947,16 @@
       <c r="A29" s="57">
         <v>28</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="57" t="s">
+        <v>122</v>
+      </c>
       <c r="C29" s="44"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="59">
+        <v>6</v>
+      </c>
+      <c r="E29" s="61">
+        <v>18</v>
+      </c>
       <c r="F29" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4903,54 +4965,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="H29" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I29" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J29" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K29" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K29" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L29" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M29" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M29" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N29" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N29" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O29" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O29" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P29" s="62">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R29" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R29" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S29" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S29" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T29" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T29" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
@@ -4963,7 +5027,9 @@
       <c r="AC29" s="57"/>
       <c r="AD29" s="57"/>
       <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
+      <c r="AF29" s="57">
+        <v>1</v>
+      </c>
       <c r="AG29" s="58"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="58"/>
@@ -7431,8 +7497,8 @@
   <dimension ref="A1:AX63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7570,11 +7636,11 @@
       </c>
       <c r="AD1" s="23" t="str">
         <f>真值表!AE1</f>
-        <v>XXX</v>
+        <v>SB</v>
       </c>
       <c r="AE1" s="23" t="str">
         <f>真值表!AF1</f>
-        <v>XXX</v>
+        <v>BLTU</v>
       </c>
       <c r="AF1" s="25" t="str">
         <f>真值表!AG1</f>
@@ -11304,63 +11370,63 @@
     <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="31" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
-        <v/>
-      </c>
-      <c r="B26" s="37" t="str">
+        <v>SLL</v>
+      </c>
+      <c r="B26" s="37">
         <f>IF(ISBLANK(真值表!C26),"",真值表!C26)</f>
-        <v/>
-      </c>
-      <c r="C26" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C26" s="37">
         <f>IF(ISBLANK(真值表!D26),"",真值表!D26)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D26" s="36" t="str">
         <f>IF(ISBLANK(真值表!E26),"",真值表!E26)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E26" s="55" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F26" s="55" t="str">
         <f>IF(真值表!G26=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G26=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G26" s="55" t="str">
         <f>IF(真值表!H26=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H26=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H26" s="55" t="str">
         <f>IF(真值表!I26=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I26=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I26" s="55" t="str">
         <f>IF(真值表!J26=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J26=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J26" s="54" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K26" s="54" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L26" s="54" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M26" s="54" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N26" s="54" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O26" s="53" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P26" s="24" t="str">
         <f>IF(真值表!Q26=1,$O26&amp;"+","")</f>
@@ -11392,7 +11458,7 @@
       </c>
       <c r="W26" s="24" t="str">
         <f>IF(真值表!X26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X26" s="24" t="str">
         <f>IF(真值表!Y26=1,$O26&amp;"+","")</f>
@@ -11458,63 +11524,63 @@
     <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="50" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
-        <v/>
-      </c>
-      <c r="B27" s="45" t="str">
+        <v>SRA</v>
+      </c>
+      <c r="B27" s="45">
         <f>IF(ISBLANK(真值表!C27),"",真值表!C27)</f>
-        <v/>
-      </c>
-      <c r="C27" s="52" t="str">
+        <v>32</v>
+      </c>
+      <c r="C27" s="52">
         <f>IF(ISBLANK(真值表!D27),"",真值表!D27)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="D27" s="51" t="str">
         <f>IF(ISBLANK(真值表!E27),"",真值表!E27)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E27" s="47" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F27" s="47" t="str">
         <f>IF(真值表!G27=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G27=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G27" s="47" t="str">
         <f>IF(真值表!H27=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H27=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H27" s="47" t="str">
         <f>IF(真值表!I27=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I27=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I27" s="47" t="str">
         <f>IF(真值表!J27=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J27=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J27" s="46" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K27" s="46" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L27" s="46" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M27" s="46" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N27" s="46" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O27" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P27" s="49" t="str">
         <f>IF(真值表!Q27=1,$O27&amp;"+","")</f>
@@ -11530,7 +11596,7 @@
       </c>
       <c r="S27" s="49" t="str">
         <f>IF(真值表!T27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T27" s="49" t="str">
         <f>IF(真值表!U27=1,$O27&amp;"+","")</f>
@@ -11546,7 +11612,7 @@
       </c>
       <c r="W27" s="49" t="str">
         <f>IF(真值表!X27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X27" s="49" t="str">
         <f>IF(真值表!Y27=1,$O27&amp;"+","")</f>
@@ -11612,19 +11678,19 @@
     <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="31" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
-        <v/>
+        <v>SB</v>
       </c>
       <c r="B28" s="37" t="str">
         <f>IF(ISBLANK(真值表!C28),"",真值表!C28)</f>
         <v/>
       </c>
-      <c r="C28" s="37" t="str">
+      <c r="C28" s="37">
         <f>IF(ISBLANK(真值表!D28),"",真值表!D28)</f>
-        <v/>
-      </c>
-      <c r="D28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
         <f>IF(ISBLANK(真值表!E28),"",真值表!E28)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E28" s="55" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11636,39 +11702,39 @@
       </c>
       <c r="G28" s="55" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H28" s="55" t="str">
         <f>IF(真值表!I28=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I28=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I28" s="55" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J28" s="54" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K28" s="54" t="str">
         <f>IF(真值表!L28=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L28=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L28" s="54" t="str">
         <f>IF(真值表!M28=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M28=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M28" s="54" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N28" s="54" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P28" s="24" t="str">
         <f>IF(真值表!Q28=1,$O28&amp;"+","")</f>
@@ -11676,7 +11742,7 @@
       </c>
       <c r="Q28" s="24" t="str">
         <f>IF(真值表!R28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R28" s="24" t="str">
         <f>IF(真值表!S28=1,$O28&amp;"+","")</f>
@@ -11684,7 +11750,7 @@
       </c>
       <c r="S28" s="24" t="str">
         <f>IF(真值表!T28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T28" s="24" t="str">
         <f>IF(真值表!U28=1,$O28&amp;"+","")</f>
@@ -11692,11 +11758,11 @@
       </c>
       <c r="U28" s="24" t="str">
         <f>IF(真值表!V28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
@@ -11708,7 +11774,7 @@
       </c>
       <c r="Y28" s="24" t="str">
         <f>IF(真值表!Z28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z28" s="24" t="str">
         <f>IF(真值表!AA28=1,$O28&amp;"+","")</f>
@@ -11728,7 +11794,7 @@
       </c>
       <c r="AD28" s="24" t="str">
         <f>IF(真值表!AE28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AE28" s="24" t="str">
         <f>IF(真值表!AF28=1,$O28&amp;"+","")</f>
@@ -11766,19 +11832,19 @@
     <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="50" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
-        <v/>
+        <v>BLTU</v>
       </c>
       <c r="B29" s="45" t="str">
         <f>IF(ISBLANK(真值表!C29),"",真值表!C29)</f>
         <v/>
       </c>
-      <c r="C29" s="52" t="str">
+      <c r="C29" s="52">
         <f>IF(ISBLANK(真值表!D29),"",真值表!D29)</f>
-        <v/>
-      </c>
-      <c r="D29" s="51" t="str">
+        <v>6</v>
+      </c>
+      <c r="D29" s="51">
         <f>IF(ISBLANK(真值表!E29),"",真值表!E29)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E29" s="47" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11790,47 +11856,47 @@
       </c>
       <c r="G29" s="47" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H29" s="47" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I29" s="47" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J29" s="46" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K29" s="46" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L29" s="46" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M29" s="46" t="str">
         <f>IF(真值表!N29=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N29=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N29" s="46" t="str">
         <f>IF(真值表!O29=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O29=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O29" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P29" s="49" t="str">
         <f>IF(真值表!Q29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q29" s="49" t="str">
         <f>IF(真值表!R29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R29" s="49" t="str">
         <f>IF(真值表!S29=1,$O29&amp;"+","")</f>
@@ -11886,7 +11952,7 @@
       </c>
       <c r="AE29" s="49" t="str">
         <f>IF(真值表!AF29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AF29" s="49" t="str">
         <f>IF(真值表!AG29=1,$O29&amp;"+","")</f>
@@ -16249,11 +16315,11 @@
       <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16261,7 +16327,7 @@
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16269,15 +16335,15 @@
       </c>
       <c r="U58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16285,7 +16351,7 @@
       </c>
       <c r="Y58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Z58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16305,11 +16371,11 @@
       </c>
       <c r="AD58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AE58" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16344,12 +16410,12 @@
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
@@ -16359,7 +16425,7 @@
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
@@ -16369,15 +16435,15 @@
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
 )</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16385,7 +16451,7 @@
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="3"/>
@@ -16405,11 +16471,11 @@
       </c>
       <c r="AD59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AE59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>

--- a/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HustProjects\Project_Of_HardwareSystem_2022\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77A3B16-F637-4BF6-B0D9-C1071DB6DD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F6473-A282-45D7-B8F4-BEE6097E8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -956,6 +956,14 @@
   </si>
   <si>
     <t>BLTU</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2187,8 +2195,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="AE22" workbookViewId="0">
+      <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2308,10 +2316,10 @@
         <v>122</v>
       </c>
       <c r="AG1" s="25" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="25" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="AI1" s="25" t="s">
         <v>13</v>
@@ -4737,8 +4745,12 @@
       <c r="AD26" s="31"/>
       <c r="AE26" s="31"/>
       <c r="AF26" s="31"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
+      <c r="AG26" s="36">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="36">
+        <v>1</v>
+      </c>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="36"/>
       <c r="AK26" s="36"/>
@@ -4834,8 +4846,12 @@
       <c r="AD27" s="57"/>
       <c r="AE27" s="57"/>
       <c r="AF27" s="57"/>
-      <c r="AG27" s="58"/>
-      <c r="AH27" s="58"/>
+      <c r="AG27" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="58">
+        <v>1</v>
+      </c>
       <c r="AI27" s="58"/>
       <c r="AJ27" s="58"/>
       <c r="AK27" s="58"/>
@@ -4936,7 +4952,9 @@
       </c>
       <c r="AF28" s="31"/>
       <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
+      <c r="AH28" s="36">
+        <v>1</v>
+      </c>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="36"/>
@@ -5030,8 +5048,12 @@
       <c r="AF29" s="57">
         <v>1</v>
       </c>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
+      <c r="AG29" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="58">
+        <v>1</v>
+      </c>
       <c r="AI29" s="58"/>
       <c r="AJ29" s="58"/>
       <c r="AK29" s="58"/>
@@ -7496,9 +7518,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7644,11 +7666,11 @@
       </c>
       <c r="AF1" s="25" t="str">
         <f>真值表!AG1</f>
-        <v>XXX</v>
+        <v>R1</v>
       </c>
       <c r="AG1" s="25" t="str">
         <f>真值表!AH1</f>
-        <v>XXX</v>
+        <v>R2</v>
       </c>
       <c r="AH1" s="25" t="str">
         <f>真值表!AI1</f>
@@ -11494,11 +11516,11 @@
       </c>
       <c r="AF26" s="24" t="str">
         <f>IF(真值表!AG26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG26" s="24" t="str">
         <f>IF(真值表!AH26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH26" s="24" t="str">
         <f>IF(真值表!AI26=1,$O26&amp;"+","")</f>
@@ -11648,11 +11670,11 @@
       </c>
       <c r="AF27" s="49" t="str">
         <f>IF(真值表!AG27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG27" s="49" t="str">
         <f>IF(真值表!AH27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH27" s="49" t="str">
         <f>IF(真值表!AI27=1,$O27&amp;"+","")</f>
@@ -11806,7 +11828,7 @@
       </c>
       <c r="AG28" s="24" t="str">
         <f>IF(真值表!AH28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH28" s="24" t="str">
         <f>IF(真值表!AI28=1,$O28&amp;"+","")</f>
@@ -11956,11 +11978,11 @@
       </c>
       <c r="AF29" s="49" t="str">
         <f>IF(真值表!AG29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG29" s="49" t="str">
         <f>IF(真值表!AH29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH29" s="49" t="str">
         <f>IF(真值表!AI29=1,$O29&amp;"+","")</f>
@@ -16379,11 +16401,11 @@
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AH58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16479,11 +16501,11 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>

--- a/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HustProjects\Project_Of_HardwareSystem_2022\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F6473-A282-45D7-B8F4-BEE6097E8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E4165-F252-44B1-BC27-35A86D0739E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -964,6 +964,14 @@
   </si>
   <si>
     <t>R2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2195,8 +2203,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="AE22" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="AJ29" sqref="AJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2322,10 +2330,10 @@
         <v>124</v>
       </c>
       <c r="AI1" s="25" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="AJ1" s="25" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="AK1" s="25" t="s">
         <v>13</v>
@@ -5055,7 +5063,9 @@
         <v>1</v>
       </c>
       <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
+      <c r="AJ29" s="58">
+        <v>1</v>
+      </c>
       <c r="AK29" s="58"/>
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
@@ -7520,7 +7530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG29" sqref="AG29"/>
+      <selection pane="bottomLeft" activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7674,11 +7684,11 @@
       </c>
       <c r="AH1" s="25" t="str">
         <f>真值表!AI1</f>
-        <v>XXX</v>
+        <v>I</v>
       </c>
       <c r="AI1" s="25" t="str">
         <f>真值表!AJ1</f>
-        <v>XXX</v>
+        <v>B</v>
       </c>
       <c r="AJ1" s="25" t="str">
         <f>真值表!AK1</f>
@@ -11990,7 +12000,7 @@
       </c>
       <c r="AI29" s="49" t="str">
         <f>IF(真值表!AJ29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ29" s="49" t="str">
         <f>IF(真值表!AK29=1,$O29&amp;"+","")</f>
@@ -16413,7 +16423,7 @@
       </c>
       <c r="AI58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AJ58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16513,7 +16523,7 @@
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ59" t="str">
         <f t="shared" si="3"/>

--- a/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HustProjects\Project_Of_HardwareSystem_2022\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\HustProjects\Project_Of_HardwareSystem_2022\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24E4165-F252-44B1-BC27-35A86D0739E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A3CBF4-DF01-4D02-9BF7-772041396655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -972,6 +972,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2201,10 +2205,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39994506668294322"/>
   </sheetPr>
-  <dimension ref="A1:AN62"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AC69" sqref="AC69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -7427,6 +7431,11 @@
       <c r="AM61" s="58"/>
     </row>
     <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="69" spans="29:29" x14ac:dyDescent="0.45">
+      <c r="AC69" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A1:E1048576" name="区域1" securityDescriptor=""/>
@@ -7528,7 +7537,7 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AI58" sqref="AI58"/>
     </sheetView>
